--- a/InfoFiles/sql info stuff.xlsx
+++ b/InfoFiles/sql info stuff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weblu\Code\SE2\Repos\PeerEval-TeamWhite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weblu\Code\SE2\Repos\PeerEval-TeamWhite\InfoFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B112E6-BAC9-48B9-B001-ABA01E45D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAF4FE1-BCFD-4708-91F1-B3AC84666489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25017" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,17 +468,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,42 +700,42 @@
   </sheetPr>
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="E1" s="14" t="s">
+    <row r="1" spans="1:22" ht="15.05">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.05">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,13 +793,13 @@
       <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="15.05">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -867,7 +867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" ht="15.05">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" ht="15.05">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -999,7 +999,7 @@
       </c>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="15.05">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="15.05">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" ht="15.05">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="15.05">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="15.05">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" ht="15.05">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="15.05">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" ht="15.05">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" ht="15.05">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" ht="15.05">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="15.05">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" ht="15.05">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" ht="15.05">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" ht="15.05">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" ht="15.05">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" ht="15.05">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I3:I21,N3:N21,S3:S17)</f>
         <v>4.0377358490566042</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" ht="15.05">
       <c r="A26" s="10">
         <v>1</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>4.0666666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" ht="15.05">
       <c r="A27" s="10">
         <v>2</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>3.4666666666666668</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" ht="15.05">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -2109,11 +2109,11 @@
         <v>20</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E5:S5)</f>
         <v>4.1333333333333337</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" ht="15.05">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>2.8666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" ht="15.05">
       <c r="A30" s="10">
         <v>5</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" ht="15.05">
       <c r="A31" s="10">
         <v>6</v>
       </c>
@@ -2317,7 +2317,7 @@
   </sheetPr>
   <dimension ref="A1:AB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -2330,36 +2330,36 @@
     <col min="22" max="26" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="15.05">
       <c r="A1" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.05">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2422,7 +2422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="15.05">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15.05">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="15.05">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="15.05">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="15.05">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="15.05">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="15.05">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="15.05">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="15.05">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="15.05">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="15.05">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="15.05">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="15.05">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" ht="15.05">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" ht="15.05">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" ht="15.05">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" ht="15.05">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" ht="15.05">
       <c r="R23" s="1" t="s">
         <v>76</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" ht="13.1">
       <c r="A24" s="10" t="s">
         <v>78</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="15.05">
       <c r="A26" s="10">
         <v>1</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>insert into teams (evalID,teamID,student) values ( 1,1,1);</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" ht="15.05">
       <c r="A27" s="10">
         <v>2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>insert into teams (evalID,teamID,student) values ( 1,1,2);</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" ht="15.05">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>insert into teams (evalID,teamID,student) values ( 1,1,3);</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" ht="15.05">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>insert into teams (evalID,teamID,student) values ( 1,2,4);</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" ht="15.05">
       <c r="A30" s="10">
         <v>5</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>insert into teams (evalID,teamID,student) values ( 1,2,5);</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" ht="15.05">
       <c r="A31" s="10">
         <v>6</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="R47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AB47" s="17" t="s">
+      <c r="AB47" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A48&amp;","&amp;L48&amp;","&amp;C48&amp;",'C',"&amp;G48&amp;");"</f>
+        <f t="shared" ref="N48:N79" si="2">"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A48&amp;","&amp;L48&amp;","&amp;C48&amp;",'C',"&amp;G48&amp;");"</f>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,1,1,'C',3);</v>
       </c>
       <c r="Z48" t="str">
@@ -4058,11 +4058,11 @@
         <v>1</v>
       </c>
       <c r="N49" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'C',"&amp;G49&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,1,2,'C',2);</v>
       </c>
       <c r="Z49" t="str">
-        <f t="shared" ref="Z49:Z100" si="2">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'K',"&amp;I49&amp;");"</f>
+        <f t="shared" ref="Z49:Z100" si="3">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'K',"&amp;I49&amp;");"</f>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,2,'K',2);</v>
       </c>
       <c r="AA49" s="11"/>
@@ -4105,11 +4105,11 @@
         <v>1</v>
       </c>
       <c r="N50" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A50&amp;","&amp;L50&amp;","&amp;C50&amp;",'C',"&amp;G50&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,1,3,'C',3);</v>
       </c>
       <c r="Z50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,3,'K',3);</v>
       </c>
     </row>
@@ -4151,11 +4151,11 @@
         <v>4</v>
       </c>
       <c r="N51" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A51&amp;","&amp;L51&amp;","&amp;C51&amp;",'C',"&amp;G51&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,4,4,'C',3);</v>
       </c>
       <c r="Z51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,4,'K',3);</v>
       </c>
     </row>
@@ -4197,11 +4197,11 @@
         <v>4</v>
       </c>
       <c r="N52" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A52&amp;","&amp;L52&amp;","&amp;C52&amp;",'C',"&amp;G52&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,4,5,'C',3);</v>
       </c>
       <c r="Z52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,5,'K',3);</v>
       </c>
     </row>
@@ -4243,11 +4243,11 @@
         <v>4</v>
       </c>
       <c r="N53" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A53&amp;","&amp;L53&amp;","&amp;C53&amp;",'C',"&amp;G53&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,4,6,'C',5);</v>
       </c>
       <c r="Z53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,6,'K',3);</v>
       </c>
     </row>
@@ -4289,11 +4289,11 @@
         <v>7</v>
       </c>
       <c r="N54" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A54&amp;","&amp;L54&amp;","&amp;C54&amp;",'C',"&amp;G54&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,7,7,'C',3);</v>
       </c>
       <c r="Z54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,7,'K',5);</v>
       </c>
     </row>
@@ -4335,11 +4335,11 @@
         <v>7</v>
       </c>
       <c r="N55" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A55&amp;","&amp;L55&amp;","&amp;C55&amp;",'C',"&amp;G55&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,7,8,'C',5);</v>
       </c>
       <c r="Z55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,8,'K',3);</v>
       </c>
     </row>
@@ -4381,11 +4381,11 @@
         <v>7</v>
       </c>
       <c r="N56" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A56&amp;","&amp;L56&amp;","&amp;C56&amp;",'C',"&amp;G56&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,7,9,'C',4);</v>
       </c>
       <c r="Z56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,9,'K',4);</v>
       </c>
     </row>
@@ -4427,11 +4427,11 @@
         <v>10</v>
       </c>
       <c r="N57" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A57&amp;","&amp;L57&amp;","&amp;C57&amp;",'C',"&amp;G57&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,10,10,'C',4);</v>
       </c>
       <c r="Z57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,10,'K',5);</v>
       </c>
     </row>
@@ -4473,11 +4473,11 @@
         <v>10</v>
       </c>
       <c r="N58" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A58&amp;","&amp;L58&amp;","&amp;C58&amp;",'C',"&amp;G58&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,10,11,'C',5);</v>
       </c>
       <c r="Z58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,11,'K',5);</v>
       </c>
     </row>
@@ -4519,11 +4519,11 @@
         <v>10</v>
       </c>
       <c r="N59" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A59&amp;","&amp;L59&amp;","&amp;C59&amp;",'C',"&amp;G59&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,10,12,'C',4);</v>
       </c>
       <c r="Z59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,12,'K',4);</v>
       </c>
     </row>
@@ -4565,11 +4565,11 @@
         <v>13</v>
       </c>
       <c r="N60" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A60&amp;","&amp;L60&amp;","&amp;C60&amp;",'C',"&amp;G60&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,13,13,'C',4);</v>
       </c>
       <c r="Z60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,13,'K',4);</v>
       </c>
     </row>
@@ -4611,11 +4611,11 @@
         <v>13</v>
       </c>
       <c r="N61" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A61&amp;","&amp;L61&amp;","&amp;C61&amp;",'C',"&amp;G61&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,13,14,'C',4);</v>
       </c>
       <c r="Z61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,14,'K',4);</v>
       </c>
     </row>
@@ -4657,11 +4657,11 @@
         <v>13</v>
       </c>
       <c r="N62" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A62&amp;","&amp;L62&amp;","&amp;C62&amp;",'C',"&amp;G62&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,13,15,'C',4);</v>
       </c>
       <c r="Z62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,15,'K',4);</v>
       </c>
     </row>
@@ -4703,11 +4703,11 @@
         <v>16</v>
       </c>
       <c r="N63" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A63&amp;","&amp;L63&amp;","&amp;C63&amp;",'C',"&amp;G63&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,16,16,'C',5);</v>
       </c>
       <c r="Z63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,16,16,'K',5);</v>
       </c>
     </row>
@@ -4749,11 +4749,11 @@
         <v>16</v>
       </c>
       <c r="N64" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A64&amp;","&amp;L64&amp;","&amp;C64&amp;",'C',"&amp;G64&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,16,17,'C',5);</v>
       </c>
       <c r="Z64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,16,17,'K',5);</v>
       </c>
     </row>
@@ -4795,11 +4795,11 @@
         <v>18</v>
       </c>
       <c r="N65" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A65&amp;","&amp;L65&amp;","&amp;C65&amp;",'C',"&amp;G65&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,18,18,'C',4);</v>
       </c>
       <c r="Z65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,18,18,'K',4);</v>
       </c>
     </row>
@@ -4841,11 +4841,11 @@
         <v>18</v>
       </c>
       <c r="N66" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A66&amp;","&amp;L66&amp;","&amp;C66&amp;",'C',"&amp;G66&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,18,19,'C',4);</v>
       </c>
       <c r="Z66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,18,19,'K',4);</v>
       </c>
     </row>
@@ -4887,11 +4887,11 @@
         <v>2</v>
       </c>
       <c r="N67" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A67&amp;","&amp;L67&amp;","&amp;C67&amp;",'C',"&amp;G67&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,2,1,'C',4);</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,1,'K',4);</v>
       </c>
     </row>
@@ -4933,11 +4933,11 @@
         <v>2</v>
       </c>
       <c r="N68" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A68&amp;","&amp;L68&amp;","&amp;C68&amp;",'C',"&amp;G68&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,2,2,'C',4);</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,2,'K',4);</v>
       </c>
     </row>
@@ -4979,11 +4979,11 @@
         <v>2</v>
       </c>
       <c r="N69" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A69&amp;","&amp;L69&amp;","&amp;C69&amp;",'C',"&amp;G69&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,2,3,'C',4);</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,3,'K',5);</v>
       </c>
     </row>
@@ -5025,11 +5025,11 @@
         <v>5</v>
       </c>
       <c r="N70" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A70&amp;","&amp;L70&amp;","&amp;C70&amp;",'C',"&amp;G70&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,5,4,'C',2);</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,4,'K',2);</v>
       </c>
     </row>
@@ -5071,11 +5071,11 @@
         <v>5</v>
       </c>
       <c r="N71" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A71&amp;","&amp;L71&amp;","&amp;C71&amp;",'C',"&amp;G71&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,5,5,'C',3);</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,5,'K',4);</v>
       </c>
     </row>
@@ -5117,11 +5117,11 @@
         <v>5</v>
       </c>
       <c r="N72" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A72&amp;","&amp;L72&amp;","&amp;C72&amp;",'C',"&amp;G72&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,5,6,'C',5);</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,6,'K',5);</v>
       </c>
     </row>
@@ -5163,11 +5163,11 @@
         <v>8</v>
       </c>
       <c r="N73" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A73&amp;","&amp;L73&amp;","&amp;C73&amp;",'C',"&amp;G73&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,8,7,'C',4);</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,7,'K',5);</v>
       </c>
     </row>
@@ -5209,11 +5209,11 @@
         <v>8</v>
       </c>
       <c r="N74" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A74&amp;","&amp;L74&amp;","&amp;C74&amp;",'C',"&amp;G74&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,8,8,'C',5);</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,8,'K',5);</v>
       </c>
     </row>
@@ -5255,11 +5255,11 @@
         <v>8</v>
       </c>
       <c r="N75" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A75&amp;","&amp;L75&amp;","&amp;C75&amp;",'C',"&amp;G75&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,8,9,'C',5);</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,9,'K',5);</v>
       </c>
     </row>
@@ -5301,11 +5301,11 @@
         <v>11</v>
       </c>
       <c r="N76" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A76&amp;","&amp;L76&amp;","&amp;C76&amp;",'C',"&amp;G76&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,11,10,'C',3);</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,10,'K',4);</v>
       </c>
     </row>
@@ -5347,11 +5347,11 @@
         <v>11</v>
       </c>
       <c r="N77" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A77&amp;","&amp;L77&amp;","&amp;C77&amp;",'C',"&amp;G77&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,11,11,'C',5);</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,11,'K',4);</v>
       </c>
     </row>
@@ -5393,11 +5393,11 @@
         <v>11</v>
       </c>
       <c r="N78" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A78&amp;","&amp;L78&amp;","&amp;C78&amp;",'C',"&amp;G78&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,11,12,'C',2);</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,12,'K',3);</v>
       </c>
     </row>
@@ -5439,11 +5439,11 @@
         <v>14</v>
       </c>
       <c r="N79" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A79&amp;","&amp;L79&amp;","&amp;C79&amp;",'C',"&amp;G79&amp;");"</f>
+        <f t="shared" si="2"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,14,13,'C',4);</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,13,'K',3);</v>
       </c>
     </row>
@@ -5485,11 +5485,11 @@
         <v>14</v>
       </c>
       <c r="N80" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A80&amp;","&amp;L80&amp;","&amp;C80&amp;",'C',"&amp;G80&amp;");"</f>
+        <f t="shared" ref="N80:N100" si="4">"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A80&amp;","&amp;L80&amp;","&amp;C80&amp;",'C',"&amp;G80&amp;");"</f>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,14,14,'C',5);</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,14,'K',5);</v>
       </c>
     </row>
@@ -5531,11 +5531,11 @@
         <v>14</v>
       </c>
       <c r="N81" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A81&amp;","&amp;L81&amp;","&amp;C81&amp;",'C',"&amp;G81&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,14,15,'C',4);</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,15,'K',5);</v>
       </c>
     </row>
@@ -5577,11 +5577,11 @@
         <v>17</v>
       </c>
       <c r="N82" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A82&amp;","&amp;L82&amp;","&amp;C82&amp;",'C',"&amp;G82&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,17,16,'C',5);</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,17,16,'K',5);</v>
       </c>
     </row>
@@ -5623,11 +5623,11 @@
         <v>17</v>
       </c>
       <c r="N83" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A83&amp;","&amp;L83&amp;","&amp;C83&amp;",'C',"&amp;G83&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,17,17,'C',4);</v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,17,17,'K',4);</v>
       </c>
     </row>
@@ -5669,11 +5669,11 @@
         <v>19</v>
       </c>
       <c r="N84" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A84&amp;","&amp;L84&amp;","&amp;C84&amp;",'C',"&amp;G84&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,19,18,'C',4);</v>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,19,18,'K',4);</v>
       </c>
     </row>
@@ -5715,11 +5715,11 @@
         <v>19</v>
       </c>
       <c r="N85" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A85&amp;","&amp;L85&amp;","&amp;C85&amp;",'C',"&amp;G85&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,19,19,'C',3);</v>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,19,19,'K',3);</v>
       </c>
     </row>
@@ -5761,11 +5761,11 @@
         <v>3</v>
       </c>
       <c r="N86" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A86&amp;","&amp;L86&amp;","&amp;C86&amp;",'C',"&amp;G86&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,3,1,'C',5);</v>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,1,'K',5);</v>
       </c>
     </row>
@@ -5807,11 +5807,11 @@
         <v>3</v>
       </c>
       <c r="N87" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A87&amp;","&amp;L87&amp;","&amp;C87&amp;",'C',"&amp;G87&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,3,2,'C',4);</v>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,2,'K',4);</v>
       </c>
     </row>
@@ -5853,11 +5853,11 @@
         <v>3</v>
       </c>
       <c r="N88" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A88&amp;","&amp;L88&amp;","&amp;C88&amp;",'C',"&amp;G88&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,3,3,'C',5);</v>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,3,'K',5);</v>
       </c>
     </row>
@@ -5899,11 +5899,11 @@
         <v>6</v>
       </c>
       <c r="N89" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A89&amp;","&amp;L89&amp;","&amp;C89&amp;",'C',"&amp;G89&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,6,4,'C',2);</v>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,4,'K',3);</v>
       </c>
     </row>
@@ -5945,11 +5945,11 @@
         <v>6</v>
       </c>
       <c r="N90" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A90&amp;","&amp;L90&amp;","&amp;C90&amp;",'C',"&amp;G90&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,6,5,'C',2);</v>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,5,'K',2);</v>
       </c>
     </row>
@@ -5991,11 +5991,11 @@
         <v>6</v>
       </c>
       <c r="N91" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A91&amp;","&amp;L91&amp;","&amp;C91&amp;",'C',"&amp;G91&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,6,6,'C',4);</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,6,'K',5);</v>
       </c>
     </row>
@@ -6037,11 +6037,11 @@
         <v>9</v>
       </c>
       <c r="N92" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A92&amp;","&amp;L92&amp;","&amp;C92&amp;",'C',"&amp;G92&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,9,7,'C',2);</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,7,'K',2);</v>
       </c>
     </row>
@@ -6083,11 +6083,11 @@
         <v>9</v>
       </c>
       <c r="N93" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A93&amp;","&amp;L93&amp;","&amp;C93&amp;",'C',"&amp;G93&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,9,8,'C',2);</v>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,8,'K',2);</v>
       </c>
     </row>
@@ -6129,11 +6129,11 @@
         <v>9</v>
       </c>
       <c r="N94" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A94&amp;","&amp;L94&amp;","&amp;C94&amp;",'C',"&amp;G94&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,9,9,'C',5);</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,9,'K',4);</v>
       </c>
     </row>
@@ -6175,11 +6175,11 @@
         <v>13</v>
       </c>
       <c r="N95" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A95&amp;","&amp;L95&amp;","&amp;C95&amp;",'C',"&amp;G95&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,13,10,'C',4);</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,10,'K',5);</v>
       </c>
     </row>
@@ -6221,11 +6221,11 @@
         <v>13</v>
       </c>
       <c r="N96" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A96&amp;","&amp;L96&amp;","&amp;C96&amp;",'C',"&amp;G96&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,13,11,'C',5);</v>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,11,'K',5);</v>
       </c>
     </row>
@@ -6267,11 +6267,11 @@
         <v>13</v>
       </c>
       <c r="N97" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A97&amp;","&amp;L97&amp;","&amp;C97&amp;",'C',"&amp;G97&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,13,12,'C',4);</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,12,'K',5);</v>
       </c>
     </row>
@@ -6313,11 +6313,11 @@
         <v>15</v>
       </c>
       <c r="N98" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A98&amp;","&amp;L98&amp;","&amp;C98&amp;",'C',"&amp;G98&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,15,13,'C',4);</v>
       </c>
       <c r="Z98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,13,'K',4);</v>
       </c>
     </row>
@@ -6359,11 +6359,11 @@
         <v>15</v>
       </c>
       <c r="N99" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A99&amp;","&amp;L99&amp;","&amp;C99&amp;",'C',"&amp;G99&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,15,14,'C',5);</v>
       </c>
       <c r="Z99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,14,'K',5);</v>
       </c>
     </row>
@@ -6405,11 +6405,11 @@
         <v>15</v>
       </c>
       <c r="N100" s="11" t="str">
-        <f>"insert into Response (evalID, Student1, Student2,Category,Val) values (" &amp;A100&amp;","&amp;L100&amp;","&amp;C100&amp;",'C',"&amp;G100&amp;");"</f>
+        <f t="shared" si="4"/>
         <v>insert into Response (evalID, Student1, Student2,Category,Val) values (1,15,15,'C',4);</v>
       </c>
       <c r="Z100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,15,'K',4);</v>
       </c>
     </row>
@@ -6419,13 +6419,13 @@
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q101" s="17" t="s">
+      <c r="Q101" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AB101" s="17" t="s">
+      <c r="AB101" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6433,11 +6433,11 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="19" t="str">
+      <c r="D102" s="16" t="str">
         <f>"insert into Response (evalID,student1,student2,category,val) values ("&amp;A48&amp;","&amp;L48&amp;","&amp;C48&amp;",'H',"&amp;K48&amp;");"</f>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,1,'H',4);</v>
       </c>
-      <c r="N102" s="18" t="str">
+      <c r="N102" s="15" t="str">
         <f>"insert into Response (evalID,student1,student2,category,val) values ("&amp;A48&amp;","&amp;L48&amp;","&amp;C48&amp;",'I',"&amp;H48&amp;");"</f>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,1,'I',3);</v>
       </c>
@@ -6450,18 +6450,18 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="19" t="str">
-        <f t="shared" ref="D103:D154" si="3">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'H',"&amp;K49&amp;");"</f>
+      <c r="D103" s="16" t="str">
+        <f t="shared" ref="D103:D154" si="5">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'H',"&amp;K49&amp;");"</f>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,2,'H',2);</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="13"/>
-      <c r="N103" s="18" t="str">
-        <f t="shared" ref="N103:N154" si="4">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'I',"&amp;H49&amp;");"</f>
+      <c r="N103" s="15" t="str">
+        <f t="shared" ref="N103:N153" si="6">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'I',"&amp;H49&amp;");"</f>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,2,'I',3);</v>
       </c>
       <c r="Z103" t="str">
-        <f t="shared" ref="Z103:Z154" si="5">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'E',"&amp;J49&amp;");"</f>
+        <f t="shared" ref="Z103:Z154" si="7">"insert into Response (evalID,student1,student2,category,val) values ("&amp;A49&amp;","&amp;L49&amp;","&amp;C49&amp;",'E',"&amp;J49&amp;");"</f>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,2,'E',3);</v>
       </c>
     </row>
@@ -6469,718 +6469,718 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="D104" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,3,'H',4);</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="13"/>
-      <c r="N104" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N104" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,1,3,'I',3);</v>
       </c>
       <c r="Z104" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,1,3,'E',3);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D105" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,1,3,'E',3);</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D105" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,4,'H',4);</v>
       </c>
-      <c r="N105" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N105" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,4,'I',4);</v>
       </c>
       <c r="Z105" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,4,4,'E',4);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D106" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,4,4,'E',4);</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D106" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,5,'H',4);</v>
       </c>
-      <c r="N106" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N106" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,5,'I',4);</v>
       </c>
       <c r="Z106" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,4,5,'E',4);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D107" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,4,5,'E',4);</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D107" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,6,'H',5);</v>
       </c>
-      <c r="N107" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N107" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,4,6,'I',2);</v>
       </c>
       <c r="Z107" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,4,6,'E',3);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D108" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,4,6,'E',3);</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D108" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,7,'H',3);</v>
       </c>
-      <c r="N108" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N108" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,7,'I',3);</v>
       </c>
       <c r="Z108" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,7,7,'E',3);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D109" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,7,7,'E',3);</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D109" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,8,'H',3);</v>
       </c>
-      <c r="N109" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N109" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,8,'I',3);</v>
       </c>
       <c r="Z109" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,7,8,'E',3);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D110" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,7,8,'E',3);</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D110" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,9,'H',4);</v>
       </c>
-      <c r="N110" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N110" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,7,9,'I',4);</v>
       </c>
       <c r="Z110" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,7,9,'E',4);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D111" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,7,9,'E',4);</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D111" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,10,'H',5);</v>
       </c>
-      <c r="N111" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N111" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,10,'I',5);</v>
       </c>
       <c r="Z111" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,10,10,'E',4);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="15.75" customHeight="1">
+      <c r="D112" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,10,10,'E',4);</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="15.75" customHeight="1">
-      <c r="D112" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,11,'H',5);</v>
       </c>
-      <c r="N112" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N112" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,11,'I',5);</v>
       </c>
       <c r="Z112" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,10,11,'E',4);</v>
+      </c>
+    </row>
+    <row r="113" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D113" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,10,11,'E',4);</v>
-      </c>
-    </row>
-    <row r="113" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D113" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,12,'H',5);</v>
       </c>
-      <c r="N113" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N113" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,10,12,'I',5);</v>
       </c>
       <c r="Z113" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,10,12,'E',4);</v>
+      </c>
+    </row>
+    <row r="114" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D114" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,10,12,'E',4);</v>
-      </c>
-    </row>
-    <row r="114" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D114" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,13,'H',5);</v>
       </c>
-      <c r="N114" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N114" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,13,'I',4);</v>
       </c>
       <c r="Z114" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,13,'E',4);</v>
+      </c>
+    </row>
+    <row r="115" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D115" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,13,'E',4);</v>
-      </c>
-    </row>
-    <row r="115" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D115" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,14,'H',5);</v>
       </c>
-      <c r="N115" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N115" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,14,'I',4);</v>
       </c>
       <c r="Z115" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,14,'E',4);</v>
+      </c>
+    </row>
+    <row r="116" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D116" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,14,'E',4);</v>
-      </c>
-    </row>
-    <row r="116" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D116" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,15,'H',5);</v>
       </c>
-      <c r="N116" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N116" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,15,'I',4);</v>
       </c>
       <c r="Z116" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,15,'E',4);</v>
+      </c>
+    </row>
+    <row r="117" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D117" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,15,'E',4);</v>
-      </c>
-    </row>
-    <row r="117" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D117" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,16,16,'H',5);</v>
       </c>
-      <c r="N117" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N117" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,16,16,'I',5);</v>
       </c>
       <c r="Z117" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,16,16,'E',5);</v>
+      </c>
+    </row>
+    <row r="118" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D118" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,16,16,'E',5);</v>
-      </c>
-    </row>
-    <row r="118" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D118" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,16,17,'H',5);</v>
       </c>
-      <c r="N118" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N118" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,16,17,'I',5);</v>
       </c>
       <c r="Z118" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,16,17,'E',5);</v>
+      </c>
+    </row>
+    <row r="119" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D119" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,16,17,'E',5);</v>
-      </c>
-    </row>
-    <row r="119" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D119" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,18,18,'H',4);</v>
       </c>
-      <c r="N119" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N119" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,18,18,'I',5);</v>
       </c>
       <c r="Z119" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,18,18,'E',4);</v>
+      </c>
+    </row>
+    <row r="120" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D120" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,18,18,'E',4);</v>
-      </c>
-    </row>
-    <row r="120" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D120" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,18,19,'H',3);</v>
       </c>
-      <c r="N120" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N120" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,18,19,'I',5);</v>
       </c>
       <c r="Z120" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,18,19,'E',4);</v>
+      </c>
+    </row>
+    <row r="121" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D121" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,18,19,'E',4);</v>
-      </c>
-    </row>
-    <row r="121" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D121" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,1,'H',4);</v>
       </c>
-      <c r="N121" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N121" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,1,'I',4);</v>
       </c>
       <c r="Z121" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,2,1,'E',4);</v>
+      </c>
+    </row>
+    <row r="122" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D122" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,2,1,'E',4);</v>
-      </c>
-    </row>
-    <row r="122" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D122" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,2,'H',4);</v>
       </c>
-      <c r="N122" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N122" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,2,'I',4);</v>
       </c>
       <c r="Z122" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,2,2,'E',4);</v>
+      </c>
+    </row>
+    <row r="123" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D123" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,2,2,'E',4);</v>
-      </c>
-    </row>
-    <row r="123" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D123" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,3,'H',4);</v>
       </c>
-      <c r="N123" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N123" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,2,3,'I',4);</v>
       </c>
       <c r="Z123" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,2,3,'E',4);</v>
+      </c>
+    </row>
+    <row r="124" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D124" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,2,3,'E',4);</v>
-      </c>
-    </row>
-    <row r="124" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D124" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,4,'H',3);</v>
       </c>
-      <c r="N124" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N124" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,4,'I',3);</v>
       </c>
       <c r="Z124" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,5,4,'E',3);</v>
+      </c>
+    </row>
+    <row r="125" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D125" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,5,4,'E',3);</v>
-      </c>
-    </row>
-    <row r="125" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D125" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,5,'H',3);</v>
       </c>
-      <c r="N125" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N125" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,5,'I',4);</v>
       </c>
       <c r="Z125" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,5,5,'E',3);</v>
+      </c>
+    </row>
+    <row r="126" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D126" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,5,5,'E',3);</v>
-      </c>
-    </row>
-    <row r="126" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D126" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,6,'H',5);</v>
       </c>
-      <c r="N126" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N126" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,5,6,'I',4);</v>
       </c>
       <c r="Z126" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,5,6,'E',3);</v>
+      </c>
+    </row>
+    <row r="127" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D127" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,5,6,'E',3);</v>
-      </c>
-    </row>
-    <row r="127" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D127" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,7,'H',5);</v>
       </c>
-      <c r="N127" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N127" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,7,'I',5);</v>
       </c>
       <c r="Z127" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,8,7,'E',5);</v>
+      </c>
+    </row>
+    <row r="128" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D128" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,8,7,'E',5);</v>
-      </c>
-    </row>
-    <row r="128" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D128" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,8,'H',5);</v>
       </c>
-      <c r="N128" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N128" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,8,'I',5);</v>
       </c>
       <c r="Z128" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,8,8,'E',5);</v>
+      </c>
+    </row>
+    <row r="129" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D129" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,8,8,'E',5);</v>
-      </c>
-    </row>
-    <row r="129" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D129" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,9,'H',5);</v>
       </c>
-      <c r="N129" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N129" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,8,9,'I',5);</v>
       </c>
       <c r="Z129" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,8,9,'E',5);</v>
+      </c>
+    </row>
+    <row r="130" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D130" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,8,9,'E',5);</v>
-      </c>
-    </row>
-    <row r="130" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D130" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,10,'H',4);</v>
       </c>
-      <c r="N130" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N130" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,10,'I',4);</v>
       </c>
       <c r="Z130" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,11,10,'E',4);</v>
+      </c>
+    </row>
+    <row r="131" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D131" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,11,10,'E',4);</v>
-      </c>
-    </row>
-    <row r="131" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D131" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,11,'H',5);</v>
       </c>
-      <c r="N131" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N131" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,11,'I',3);</v>
       </c>
       <c r="Z131" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,11,11,'E',4);</v>
+      </c>
+    </row>
+    <row r="132" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D132" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,11,11,'E',4);</v>
-      </c>
-    </row>
-    <row r="132" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D132" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,12,'H',3);</v>
       </c>
-      <c r="N132" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N132" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,11,12,'I',3);</v>
       </c>
       <c r="Z132" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,11,12,'E',4);</v>
+      </c>
+    </row>
+    <row r="133" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D133" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,11,12,'E',4);</v>
-      </c>
-    </row>
-    <row r="133" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D133" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,13,'H',5);</v>
       </c>
-      <c r="N133" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N133" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,13,'I',3);</v>
       </c>
       <c r="Z133" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,14,13,'E',5);</v>
+      </c>
+    </row>
+    <row r="134" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D134" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,14,13,'E',5);</v>
-      </c>
-    </row>
-    <row r="134" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D134" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,14,'H',5);</v>
       </c>
-      <c r="N134" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N134" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,14,'I',3);</v>
       </c>
       <c r="Z134" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,14,14,'E',5);</v>
+      </c>
+    </row>
+    <row r="135" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D135" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,14,14,'E',5);</v>
-      </c>
-    </row>
-    <row r="135" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D135" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,15,'H',5);</v>
       </c>
-      <c r="N135" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N135" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,14,15,'I',3);</v>
       </c>
       <c r="Z135" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,14,15,'E',5);</v>
+      </c>
+    </row>
+    <row r="136" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D136" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,14,15,'E',5);</v>
-      </c>
-    </row>
-    <row r="136" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D136" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,17,16,'H',5);</v>
       </c>
-      <c r="N136" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N136" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,17,16,'I',5);</v>
       </c>
       <c r="Z136" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,17,16,'E',5);</v>
+      </c>
+    </row>
+    <row r="137" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D137" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,17,16,'E',5);</v>
-      </c>
-    </row>
-    <row r="137" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D137" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,17,17,'H',4);</v>
       </c>
-      <c r="N137" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N137" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,17,17,'I',4);</v>
       </c>
       <c r="Z137" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,17,17,'E',5);</v>
+      </c>
+    </row>
+    <row r="138" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D138" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,17,17,'E',5);</v>
-      </c>
-    </row>
-    <row r="138" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D138" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,19,18,'H',3);</v>
       </c>
-      <c r="N138" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N138" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,19,18,'I',4);</v>
       </c>
       <c r="Z138" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,19,18,'E',4);</v>
+      </c>
+    </row>
+    <row r="139" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D139" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,19,18,'E',4);</v>
-      </c>
-    </row>
-    <row r="139" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D139" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,19,19,'H',3);</v>
       </c>
-      <c r="N139" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N139" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,19,19,'I',3);</v>
       </c>
       <c r="Z139" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,19,19,'E',4);</v>
+      </c>
+    </row>
+    <row r="140" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D140" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,19,19,'E',4);</v>
-      </c>
-    </row>
-    <row r="140" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D140" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,1,'H',5);</v>
       </c>
-      <c r="N140" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N140" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,1,'I',5);</v>
       </c>
       <c r="Z140" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,3,1,'E',5);</v>
+      </c>
+    </row>
+    <row r="141" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D141" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,3,1,'E',5);</v>
-      </c>
-    </row>
-    <row r="141" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D141" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,2,'H',4);</v>
       </c>
-      <c r="N141" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N141" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,2,'I',4);</v>
       </c>
       <c r="Z141" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,3,2,'E',4);</v>
+      </c>
+    </row>
+    <row r="142" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D142" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,3,2,'E',4);</v>
-      </c>
-    </row>
-    <row r="142" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D142" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,3,'H',5);</v>
       </c>
-      <c r="N142" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N142" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,3,3,'I',5);</v>
       </c>
       <c r="Z142" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,3,3,'E',5);</v>
+      </c>
+    </row>
+    <row r="143" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D143" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,3,3,'E',5);</v>
-      </c>
-    </row>
-    <row r="143" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D143" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,4,'H',2);</v>
       </c>
-      <c r="N143" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N143" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,4,'I',3);</v>
       </c>
       <c r="Z143" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,6,4,'E',2);</v>
+      </c>
+    </row>
+    <row r="144" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D144" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,6,4,'E',2);</v>
-      </c>
-    </row>
-    <row r="144" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D144" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,5,'H',3);</v>
       </c>
-      <c r="N144" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N144" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,5,'I',3);</v>
       </c>
       <c r="Z144" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,6,5,'E',3);</v>
+      </c>
+    </row>
+    <row r="145" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D145" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,6,5,'E',3);</v>
-      </c>
-    </row>
-    <row r="145" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D145" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,6,'H',3);</v>
       </c>
-      <c r="N145" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N145" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,6,6,'I',3);</v>
       </c>
       <c r="Z145" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,6,6,'E',3);</v>
+      </c>
+    </row>
+    <row r="146" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D146" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,6,6,'E',3);</v>
-      </c>
-    </row>
-    <row r="146" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D146" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,7,'H',2);</v>
       </c>
-      <c r="N146" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N146" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,7,'I',2);</v>
       </c>
       <c r="Z146" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,9,7,'E',4);</v>
+      </c>
+    </row>
+    <row r="147" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D147" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,9,7,'E',4);</v>
-      </c>
-    </row>
-    <row r="147" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D147" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,8,'H',2);</v>
       </c>
-      <c r="N147" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N147" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,8,'I',2);</v>
       </c>
       <c r="Z147" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,9,8,'E',4);</v>
+      </c>
+    </row>
+    <row r="148" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D148" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,9,8,'E',4);</v>
-      </c>
-    </row>
-    <row r="148" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D148" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,9,'H',5);</v>
       </c>
-      <c r="N148" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N148" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,9,9,'I',4);</v>
       </c>
       <c r="Z148" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,9,9,'E',5);</v>
+      </c>
+    </row>
+    <row r="149" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D149" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,9,9,'E',5);</v>
-      </c>
-    </row>
-    <row r="149" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D149" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,10,'H',3);</v>
       </c>
-      <c r="N149" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N149" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,10,'I',5);</v>
       </c>
       <c r="Z149" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,10,'E',3);</v>
+      </c>
+    </row>
+    <row r="150" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D150" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,10,'E',3);</v>
-      </c>
-    </row>
-    <row r="150" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D150" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,11,'H',5);</v>
       </c>
-      <c r="N150" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N150" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,11,'I',5);</v>
       </c>
       <c r="Z150" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,11,'E',3);</v>
+      </c>
+    </row>
+    <row r="151" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D151" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,11,'E',3);</v>
-      </c>
-    </row>
-    <row r="151" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D151" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,12,'H',3);</v>
       </c>
-      <c r="N151" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N151" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,13,12,'I',3);</v>
       </c>
       <c r="Z151" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,12,'E',3);</v>
+      </c>
+    </row>
+    <row r="152" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D152" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,13,12,'E',3);</v>
-      </c>
-    </row>
-    <row r="152" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D152" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,13,'H',4);</v>
       </c>
-      <c r="N152" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N152" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,13,'I',4);</v>
       </c>
       <c r="Z152" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,15,13,'E',5);</v>
+      </c>
+    </row>
+    <row r="153" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D153" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,15,13,'E',5);</v>
-      </c>
-    </row>
-    <row r="153" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D153" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,14,'H',4);</v>
       </c>
-      <c r="N153" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="N153" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,14,'I',4);</v>
       </c>
       <c r="Z153" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into Response (evalID,student1,student2,category,val) values (1,15,14,'E',5);</v>
+      </c>
+    </row>
+    <row r="154" spans="4:26" ht="15.75" customHeight="1">
+      <c r="D154" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Response (evalID,student1,student2,category,val) values (1,15,14,'E',5);</v>
-      </c>
-    </row>
-    <row r="154" spans="4:26" ht="15.75" customHeight="1">
-      <c r="D154" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,15,'H',4);</v>
       </c>
-      <c r="N154" s="18" t="str">
+      <c r="N154" s="15" t="str">
         <f>"insert into Response (evalID,student1,student2,category,val) values ("&amp;A100&amp;","&amp;L100&amp;","&amp;C100&amp;",'I',"&amp;H100&amp;");"</f>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,15,'I',4);</v>
       </c>
       <c r="Z154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>insert into Response (evalID,student1,student2,category,val) values (1,15,15,'E',5);</v>
       </c>
     </row>
